--- a/Documentacion/Fase de construcción/Semana 10/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de construcción/Semana 10/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="221">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Descripción Actividad</t>
   </si>
   <si>
-    <t>Alejandro Garcia</t>
-  </si>
-  <si>
     <t>Total Línea Gestión de Configuración y Control de Cambios</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>Vicente Acosta</t>
   </si>
   <si>
-    <t>Federico Trindad</t>
-  </si>
-  <si>
-    <t>Total Análistas</t>
-  </si>
-  <si>
     <t>Total Asistente de Verificación</t>
   </si>
   <si>
@@ -268,18 +259,12 @@
     <t>R5</t>
   </si>
   <si>
-    <t>Reunion con el cliente</t>
-  </si>
-  <si>
     <t>14/10/2010</t>
   </si>
   <si>
     <t>V3</t>
   </si>
   <si>
-    <t>Plan de Verificacion de la Iteracion</t>
-  </si>
-  <si>
     <t>Especificar Casos de Pruebas</t>
   </si>
   <si>
@@ -289,12 +274,6 @@
     <t>G6</t>
   </si>
   <si>
-    <t>Reunion Equipo</t>
-  </si>
-  <si>
-    <t>Reunion Quincenal</t>
-  </si>
-  <si>
     <t>16/10/2010</t>
   </si>
   <si>
@@ -337,9 +316,6 @@
     <t>Corregir bugs</t>
   </si>
   <si>
-    <t>Reunion quincenal</t>
-  </si>
-  <si>
     <t>17/10/2010</t>
   </si>
   <si>
@@ -358,18 +334,9 @@
     <t>E2</t>
   </si>
   <si>
-    <t>Auto estudio del analisis de codigo</t>
-  </si>
-  <si>
     <t>Porque no saltaba nada, lo cual no era bueno</t>
   </si>
   <si>
-    <t>Analisis de codigo, y correccion de warning</t>
-  </si>
-  <si>
-    <t>Investigacion de nueva herramienta y correcciones del codigo</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
@@ -403,24 +370,12 @@
     <t>Revisión de entregables, seguimiento de la planificación</t>
   </si>
   <si>
-    <t>Implementacion</t>
-  </si>
-  <si>
-    <t>Correcion de bugs simples en pantallas y animacion en la pantalla de viajes de ciudad</t>
-  </si>
-  <si>
     <t>Autoestudio</t>
   </si>
   <si>
     <t>Estudio de messagebox y appbar.</t>
   </si>
   <si>
-    <t>Implementar + insertar y editar imagenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rediseño de la pantalla de filtrado de sospechosos, se quitan los comobox por listbox. </t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -466,15 +421,9 @@
     <t>Gestión de riesgos</t>
   </si>
   <si>
-    <t xml:space="preserve">Tema cuentas azure, mails, actualizar documento. </t>
-  </si>
-  <si>
     <t>Preparación de reunión y reunión</t>
   </si>
   <si>
-    <t>Documento de acta de reunión y leccionas aprendidas, más visita a implementadores</t>
-  </si>
-  <si>
     <t>Investigación y pruebas</t>
   </si>
   <si>
@@ -490,9 +439,6 @@
     <t>Le mostramos a Marcelo el producto</t>
   </si>
   <si>
-    <t>Autestudio</t>
-  </si>
-  <si>
     <t>Intento de configurar la laptop de Pablo para poder probar localmente.</t>
   </si>
   <si>
@@ -583,15 +529,6 @@
     <t>Implementación de Casos de pruebas</t>
   </si>
   <si>
-    <t>Se subio a la nube la aplicación y se configuro el SQL Azure</t>
-  </si>
-  <si>
-    <t>Implementación de Casos de pruebas, ademas se definio un nuevo proyecto dentro de la solución para lo mismo y se dejo un test como ejemolo</t>
-  </si>
-  <si>
-    <t>Implementación, se diseño y comenzo con el CU de generar sospechosos de forma HardCode</t>
-  </si>
-  <si>
     <t>10/13/2010</t>
   </si>
   <si>
@@ -613,21 +550,12 @@
     <t>Elaboración de documento con las tareas de SCM para que Juan pueda hacer un diagrama de Gantt más detallado</t>
   </si>
   <si>
-    <t>Releyendo diapositivas de SCM y ayudando a Leti a configurar el entorno de desarollo en el Laptop de Pablo</t>
-  </si>
-  <si>
     <t>Elaboración de documento y dibujo explicativo sobre el manejo de los issues</t>
   </si>
   <si>
-    <t>Elaboración de los documentos Gestión de Cambios y, fundamenalmente, Registro de Versiones</t>
-  </si>
-  <si>
     <t>Elaboración de documento informativo sobre la Gestión de Cambios</t>
   </si>
   <si>
-    <t>Se implemento la parte para soportar mulitiusuario y se probó 2 usuarios a la vez en FacebookCallback</t>
-  </si>
-  <si>
     <t>Esfuerzo Rol / consolidado</t>
   </si>
   <si>
@@ -682,9 +610,6 @@
     <t>Horas realizadas semana</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -704,6 +629,72 @@
   </si>
   <si>
     <t>Formación y entrenamiento</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>Reunión con el cliente</t>
+  </si>
+  <si>
+    <t>Plan de Verificación de la Iteración</t>
+  </si>
+  <si>
+    <t>Reunión Equipo</t>
+  </si>
+  <si>
+    <t>Reunión Quincenal</t>
+  </si>
+  <si>
+    <t>Reunión quincenal</t>
+  </si>
+  <si>
+    <t>Auto estudio del análisis de código</t>
+  </si>
+  <si>
+    <t>Análisis de código, y corrección de warning</t>
+  </si>
+  <si>
+    <t>Investigación de nueva herramienta y correcciones del código</t>
+  </si>
+  <si>
+    <t>Corrección de bugs simples en pantallas y animación en la pantalla de viajes de ciudad</t>
+  </si>
+  <si>
+    <t>Implementar + insertar y editar imágenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rediseño de la pantalla de filtrado de sospechosos, se quitan los combobox por listbox. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tema cuentas Azure, mails, actualizar documento. </t>
+  </si>
+  <si>
+    <t>Documento de acta de reunión y lecciones aprendidas, más visita a implementadores</t>
+  </si>
+  <si>
+    <t>Se subió a la nube la aplicación y se configuro el SQL Azure</t>
+  </si>
+  <si>
+    <t>Implementación de Casos de pruebas, además se definió un nuevo proyecto dentro de la solución para lo mismo y se dejo un test como ejemplo</t>
+  </si>
+  <si>
+    <t>Implementación, se diseño y comenzó con el CU de generar sospechosos de forma HardCode</t>
+  </si>
+  <si>
+    <t>Releyendo diapositivas de SCM y ayudando a Leti a configurar el entorno de desarrollo en el Laptop de Pablo</t>
+  </si>
+  <si>
+    <t>Elaboración de los documentos Gestión de Cambios y, fundamentalmente, Registro de Versiones</t>
+  </si>
+  <si>
+    <t>Se implemento la parte para soportar multiusuario y se probó 2 usuarios a la vez en FacebookCallback</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Total Analistas</t>
   </si>
 </sst>
 </file>
@@ -877,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,9 +958,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1067,7 +1055,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1283,24 +1271,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="86763776"/>
-        <c:axId val="86896640"/>
+        <c:axId val="63512576"/>
+        <c:axId val="63515648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86763776"/>
+        <c:axId val="63512576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86896640"/>
+        <c:crossAx val="63515648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86896640"/>
+        <c:axId val="63515648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1296,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86763776"/>
+        <c:crossAx val="63512576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,7 +1311,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1331,7 +1319,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1339,7 +1327,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1555,24 +1543,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="86884736"/>
-        <c:axId val="86886272"/>
+        <c:axId val="92492544"/>
+        <c:axId val="92494464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86884736"/>
+        <c:axId val="92492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86886272"/>
+        <c:crossAx val="92494464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86886272"/>
+        <c:axId val="92494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1568,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86884736"/>
+        <c:crossAx val="92492544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,7 +1583,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1603,7 +1591,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1611,7 +1599,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1723,24 +1711,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="86472960"/>
-        <c:axId val="86522880"/>
+        <c:axId val="38435072"/>
+        <c:axId val="38436864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86472960"/>
+        <c:axId val="38435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86522880"/>
+        <c:crossAx val="38436864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86522880"/>
+        <c:axId val="38436864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1736,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86472960"/>
+        <c:crossAx val="38435072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,7 +1751,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1771,7 +1759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1779,7 +1767,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1894,24 +1882,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="91806720"/>
-        <c:axId val="91808512"/>
+        <c:axId val="38444416"/>
+        <c:axId val="38454400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91806720"/>
+        <c:axId val="38444416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91808512"/>
+        <c:crossAx val="38454400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91808512"/>
+        <c:axId val="38454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1907,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91806720"/>
+        <c:crossAx val="38444416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1934,7 +1922,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1942,7 +1930,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1950,7 +1938,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2068,7 +2056,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2076,7 +2064,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2084,7 +2072,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2202,7 +2190,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2210,7 +2198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2251,15 +2239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2318,13 +2306,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2381,15 +2369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3366,9 +3354,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -3388,20 +3374,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3410,16 +3396,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3428,20 +3414,20 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3451,145 +3437,145 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16">
         <v>1.5</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -3647,7 +3633,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -3670,7 +3656,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3693,12 +3679,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3706,7 +3692,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3715,19 +3701,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3735,222 +3721,222 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D12" s="18">
         <v>1.5</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D13" s="16">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D15" s="16">
         <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -3994,7 +3980,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -4017,7 +4003,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4038,20 +4024,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4060,16 +4046,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -4078,23 +4064,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4103,122 +4089,122 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D10" s="18">
         <v>3.5</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D11" s="18">
         <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -4297,7 +4283,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="23">
         <f>SUM(D4:D30)</f>
@@ -4320,7 +4306,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4343,20 +4329,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4365,19 +4351,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4385,24 +4371,24 @@
     </row>
     <row r="5" spans="1:11" s="29" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -4410,162 +4396,162 @@
     </row>
     <row r="6" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D11" s="18">
         <v>1.5</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D13" s="18">
         <v>7</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
@@ -4615,7 +4601,7 @@
     </row>
     <row r="29" spans="3:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -4637,8 +4623,8 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4651,19 +4637,19 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -4677,7 +4663,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
@@ -4685,61 +4671,61 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>215</v>
+      <c r="C6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"R*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"R*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"R*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"R*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"R*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"R*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"R*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"R*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"R*")</f>
         <v>9.5</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="35">
         <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"D*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"D*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"D*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"D*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"D*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"D*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"D*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"D*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"D*")</f>
         <v>6.5</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="C8" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="35">
         <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"I*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"I*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"I*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"I*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"I*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"I*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"I*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"I*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"I*")</f>
         <v>72.5</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="C9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="35">
         <v>72.5</v>
       </c>
     </row>
@@ -4751,25 +4737,25 @@
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"Q*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"Q*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"Q*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"Q*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"Q*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"Q*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"Q*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"Q*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"Q*")</f>
         <v>10</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="C10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"C*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"C*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"C*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"C*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"C*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"C*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"C*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"C*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"C*")</f>
         <v>3</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="35">
         <v>3</v>
       </c>
     </row>
@@ -4781,70 +4767,70 @@
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"G*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"G*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"G*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"G*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"G*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"G*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"G*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"G*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"G*")</f>
         <v>28</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="36">
+      <c r="C12" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="35">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"V*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"V*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"V*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"V*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"V*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"V*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"V*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"V*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"V*")</f>
         <v>18.5</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="C13" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="35">
         <v>18.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"U*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"U*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"U*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"U*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"U*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"U*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"U*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"U*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"U*")</f>
         <v>3</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"P*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"P*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"P*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"P*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"P*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"P*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"P*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"P*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"P*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="36">
+      <c r="C15" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="26">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"E*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"E*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"E*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"E*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"E*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"E*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"E*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"E*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"E*")</f>
         <v>29</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="C16" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="35">
         <v>29</v>
       </c>
     </row>
@@ -4856,67 +4842,67 @@
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>199</v>
+      <c r="C18" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="B19" s="24">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!F5:'2 _ Diego Ricca'!F28,"Si") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!F5:'7 _ José Cordero'!F28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!F5:'9 _ Leticia Vilariño'!F28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!F5:'11 _ Martín Taruselli'!F28,D5)</f>
         <v>3</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="C19" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="35">
         <v>219.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="C20" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!F5:'10 _ Marcos Sander'!F28,D5)</f>
         <v>10</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="36">
+      <c r="C21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="35">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!H5:'10 _ Marcos Sander'!H28,D5)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="36">
+      <c r="C22" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="35">
         <v>4</v>
       </c>
     </row>
@@ -4928,25 +4914,25 @@
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!G5:'2 _ Diego Ricca'!G28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!G5:'3 _ Federico Andrade'!G28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!G5:'4 _ Federico Trinidad'!G28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!G5:'5 _ Ignacio Infante'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!G5:'7 _ José Cordero'!G28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!H5:'9 _ Leticia Vilariño'!H28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!G5:'9 _ Leticia Vilariño'!G28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!G5:'11 _ Martín Taruselli'!G28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!H5:'12 _ Vicente Acosta'!H28,D5)</f>
         <v>96</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="36">
+      <c r="C23" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="35">
         <v>601.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="25">
         <f xml:space="preserve"> SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!F5:'3 _ Federico Andrade'!F28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!F5:'4 _ Federico Trinidad'!F28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!F5:'5 _ Ignacio Infante'!F28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!G5:'12 _ Vicente Acosta'!G28,D5)</f>
         <v>10</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="C24" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="35">
         <v>337.5</v>
       </c>
     </row>
@@ -4958,10 +4944,10 @@
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!F5:'6 _ Javier Madeiro'!F28,D5)</f>
         <v>14</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="36">
+      <c r="C25" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="35">
         <v>147</v>
       </c>
     </row>
@@ -4973,76 +4959,76 @@
         <f xml:space="preserve"> SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!F5:'12 _ Vicente Acosta'!F28,D5)</f>
         <v>9.5</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="36">
+      <c r="C26" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="35">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!F5:'1 _ Alejandro Garcia'!F28,D5) + SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!G5:'1 _ Alejandro Garcia'!G28,D5)</f>
         <v>15</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="36">
+      <c r="C27" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="35">
         <v>169.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="25">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!G5:'6 _ Javier Madeiro'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!H5:'7 _ José Cordero'!H28,D5) + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!G5:'8 _ Juan Ghiringhelli'!G28,D5) + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!G5:'10 _ Marcos Sander'!G28,D5)</f>
         <v>8</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="C28" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="35">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!F5:'8 _ Juan Ghiringhelli'!F28,D5)</f>
         <v>10</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="36">
+      <c r="C29" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!H5:'8 _ Juan Ghiringhelli'!H28,D5)</f>
         <v>2</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="36">
+      <c r="C30" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="35">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="9"/>
@@ -5050,92 +5036,92 @@
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>199</v>
+      <c r="C32" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="B34" s="24">
         <f>SUM( '1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="36">
+      <c r="C34" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="35">
         <v>150</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>183.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="25">
         <f>SUM( '2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28)</f>
         <v>14</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="C35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="35">
         <v>150</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="25">
         <f>SUM( '3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="C36" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="35">
         <v>150</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="25">
         <f>SUM( '4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28)</f>
         <v>13</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="C37" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="35">
         <v>150</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <v>172.5</v>
       </c>
     </row>
@@ -5147,13 +5133,13 @@
         <f>SUM( '5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28)</f>
         <v>16</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <v>150</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <v>183.5</v>
       </c>
     </row>
@@ -5165,31 +5151,31 @@
         <f>SUM( '6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28)</f>
         <v>14</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <v>150</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>167.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="25">
         <f>SUM( '7 _ José Cordero'!D5:'7 _ José Cordero'!D28)</f>
         <v>11</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="36">
+      <c r="C40" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="35">
         <v>150</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <v>159.5</v>
       </c>
     </row>
@@ -5201,31 +5187,31 @@
         <f>SUM( '8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28)</f>
         <v>16</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <v>150</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="25">
         <f>SUM( '9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28)</f>
         <v>15.5</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="36">
+      <c r="C42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="35">
         <v>150</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <v>167</v>
       </c>
     </row>
@@ -5237,49 +5223,49 @@
         <f>SUM( '10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>150</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="25">
         <f>SUM( '11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28)</f>
         <v>16.5</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="36">
+      <c r="C44" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="35">
         <v>150</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <v>169.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="26">
         <f>SUM( '12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28)</f>
         <v>17.5</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="36">
+      <c r="C45" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="35">
         <v>150</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <v>161</v>
       </c>
     </row>
@@ -5311,8 +5297,8 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5332,8 +5318,8 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5353,8 +5339,8 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5370,7 +5356,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5391,20 +5377,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5413,16 +5399,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5431,23 +5417,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5456,82 +5442,82 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18">
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D9" s="18">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -5641,7 +5627,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D4:D28)</f>
@@ -5664,7 +5650,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5686,20 +5672,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5708,16 +5694,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5726,13 +5712,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
@@ -5740,7 +5726,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5749,37 +5735,37 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D7" s="18">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -5876,7 +5862,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>
@@ -5896,7 +5882,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5918,20 +5904,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5940,16 +5926,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5958,23 +5944,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5990,42 +5976,42 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D8" s="18">
         <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -6093,7 +6079,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6116,7 +6102,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6125,7 +6111,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -6140,12 +6126,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -6153,7 +6139,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6162,16 +6148,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6180,20 +6166,20 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6203,59 +6189,59 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D6" s="18">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="D8" s="18">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -6344,7 +6330,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6367,7 +6353,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6390,12 +6376,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -6403,7 +6389,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6412,16 +6398,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6430,20 +6416,20 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6453,127 +6439,127 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D6" s="18">
         <v>0.5</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D7" s="18">
         <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5">
       <c r="A12" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D12" s="18">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -6626,7 +6612,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6649,7 +6635,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6658,7 +6644,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="74.140625" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6673,20 +6659,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6695,19 +6681,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6715,64 +6701,64 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="D7" s="18">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -6856,7 +6842,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6868,7 +6854,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6879,7 +6865,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6902,12 +6888,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -6915,7 +6901,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6924,19 +6910,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6944,22 +6930,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6969,142 +6955,142 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="A11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="33">
         <v>3</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>65</v>
+      <c r="E11" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -7169,7 +7155,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -7192,7 +7178,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7213,20 +7199,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -7235,19 +7221,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -7255,23 +7241,23 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -7280,122 +7266,122 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D9" s="18">
         <v>1.5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" s="18">
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -7458,7 +7444,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>
